--- a/Planilha de Teste - Sprint 3 Atualizada.xlsx
+++ b/Planilha de Teste - Sprint 3 Atualizada.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michel\Google Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="2790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de teste" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>ET01</t>
   </si>
@@ -183,9 +183,6 @@
     <t>ET06 - T13</t>
   </si>
   <si>
-    <t>ET09 - T19</t>
-  </si>
-  <si>
     <t>Irineu</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>Letícia Fernandes</t>
   </si>
   <si>
-    <t>Após a seleção do botão Estou Disponível, o sistema deverá cadastrar a solicitação com sucesso</t>
-  </si>
-  <si>
     <t>O sistema deverá cancelar a solicitação e a mesma deverá ser apagada da tela de busca de carona</t>
   </si>
   <si>
@@ -237,21 +231,6 @@
     <t>T18 - Tentar avançar sem indicar destino</t>
   </si>
   <si>
-    <t xml:space="preserve">T19 - Digitar origem ou destino </t>
-  </si>
-  <si>
-    <t>T20 - Solicitar carona e verificar se após 20 minutos a solicitação será cancelada</t>
-  </si>
-  <si>
-    <t>T21 - Tentar indicar número de vagas 0</t>
-  </si>
-  <si>
-    <t>T22 - Tentar indicar numero de vagas maior que 4</t>
-  </si>
-  <si>
-    <t>T23 - Tentar indicar numero de vagas entre 1 ate 4</t>
-  </si>
-  <si>
     <t>ET06 - T14</t>
   </si>
   <si>
@@ -267,16 +246,28 @@
     <t>ET09 - T18</t>
   </si>
   <si>
-    <t>ET10 - T20</t>
-  </si>
-  <si>
     <t>ET11 - T21</t>
   </si>
   <si>
     <t>ET11 - T22</t>
   </si>
   <si>
-    <t>ET11 - T23</t>
+    <t>ET10 - T19</t>
+  </si>
+  <si>
+    <t>ET11 - T20</t>
+  </si>
+  <si>
+    <t>T19 - Solicitar carona e verificar se após 20 minutos a solicitação será cancelada</t>
+  </si>
+  <si>
+    <t>T20 - Tentar indicar número de vagas 0</t>
+  </si>
+  <si>
+    <t>T21 - Tentar indicar numero de vagas maior que 4</t>
+  </si>
+  <si>
+    <t>T22 - Tentar indicar numero de vagas entre 1 ate 4</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1133,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="114300" cy="137746"/>
@@ -1181,7 +1172,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="114300" cy="137746"/>
@@ -1220,7 +1211,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="114300" cy="137746"/>
@@ -1259,7 +1250,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="114300" cy="137746"/>
@@ -1337,7 +1328,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="142874" cy="142874"/>
@@ -1376,7 +1367,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="142874" cy="142874"/>
@@ -1414,34 +1405,112 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142874" cy="142874"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1057275" y="3267075"/>
-          <a:ext cx="142874" cy="142874"/>
+      <xdr:colOff>232835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="114300" cy="137746"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagem 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="1153585" y="3460749"/>
+          <a:ext cx="114300" cy="137746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="114300" cy="137746"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="1174750" y="4032250"/>
+          <a:ext cx="114300" cy="137746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="114300" cy="137746"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagem 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="1178983" y="4216400"/>
+          <a:ext cx="114300" cy="137746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1716,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,16 +1904,16 @@
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>40</v>
@@ -1855,16 +1924,16 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>40</v>
@@ -1873,10 +1942,10 @@
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1884,7 +1953,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>44</v>
@@ -1895,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>46</v>
@@ -1906,7 +1975,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>45</v>
@@ -1915,70 +1984,61 @@
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="12" t="s">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1992,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2240,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
@@ -2195,7 +2255,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>18</v>
@@ -2210,7 +2270,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
@@ -2225,7 +2285,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
@@ -2236,11 +2296,11 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
@@ -2251,14 +2311,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5">
         <v>42465</v>
@@ -2266,14 +2326,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5">
         <v>42465</v>
@@ -2281,14 +2341,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5">
         <v>42465</v>
@@ -2296,11 +2356,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
@@ -2311,11 +2371,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -2326,44 +2386,44 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="5">
-        <v>42465</v>
+        <v>42466</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="5">
-        <v>42465</v>
+        <v>42466</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="5">
         <v>42465</v>
@@ -2371,32 +2431,62 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E25" s="5">
         <v>42465</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42465</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
